--- a/Experiment Insurance Form (Responses) (2).xlsx
+++ b/Experiment Insurance Form (Responses) (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="17160"/>
+    <workbookView windowWidth="14400" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="194">
   <si>
     <t>Timestamp</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>46-55</t>
-  </si>
-  <si>
-    <t>Skilled labor, Unskilled labor ( Helper )</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka hospital </t>
@@ -803,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,12 +924,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,40 +1239,40 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1568,10 +1559,10 @@
   </sheetPr>
   <dimension ref="A1:AD231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC195" sqref="AC195"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1"/>
@@ -3742,7 +3733,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>72</v>
@@ -4240,7 +4231,7 @@
         <v>50000</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X36" s="6" t="s">
         <v>58</v>
@@ -4326,13 +4317,13 @@
         <v>10000</v>
       </c>
       <c r="W37" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X37" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z37" s="6" t="s">
         <v>59</v>
@@ -4344,7 +4335,7 @@
         <v>45</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:29">
@@ -4484,13 +4475,13 @@
         <v>3000</v>
       </c>
       <c r="W39" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X39" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z39" s="6" t="s">
         <v>59</v>
@@ -4576,7 +4567,7 @@
         <v>58</v>
       </c>
       <c r="Y40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z40" s="6" t="s">
         <v>59</v>
@@ -4648,7 +4639,7 @@
         <v>41</v>
       </c>
       <c r="Y41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z41" s="6" t="s">
         <v>59</v>
@@ -4716,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -4951,7 +4942,7 @@
         <v>35</v>
       </c>
       <c r="X45" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="6" t="s">
@@ -5116,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X47" s="6" t="s">
         <v>41</v>
@@ -5191,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y48" s="9"/>
       <c r="Z48" s="6" t="s">
@@ -5265,7 +5256,7 @@
         <v>35</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y49" s="9"/>
       <c r="Z49" s="6" t="s">
@@ -5347,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y50" s="9"/>
       <c r="Z50" s="6" t="s">
@@ -5577,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="6" t="s">
@@ -5663,7 +5654,7 @@
         <v>35</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="6" t="s">
@@ -5747,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="6" t="s">
@@ -5903,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y57" s="9"/>
       <c r="Z57" s="6" t="s">
@@ -5987,7 +5978,7 @@
         <v>35</v>
       </c>
       <c r="X58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="6" t="s">
@@ -6073,7 +6064,7 @@
         <v>35</v>
       </c>
       <c r="X59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="6" t="s">
@@ -6083,7 +6074,7 @@
         <v>44</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC59" s="6" t="s">
         <v>46</v>
@@ -6157,7 +6148,7 @@
         <v>35</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="6" t="s">
@@ -6241,7 +6232,7 @@
         <v>35</v>
       </c>
       <c r="X61" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="6" t="s">
@@ -6251,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC61" s="6" t="s">
         <v>46</v>
@@ -6325,7 +6316,7 @@
         <v>35</v>
       </c>
       <c r="X62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="6" t="s">
@@ -6399,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="X63" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="6" t="s">
@@ -6483,7 +6474,7 @@
         <v>35</v>
       </c>
       <c r="X64" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="6" t="s">
@@ -6559,7 +6550,7 @@
         <v>35</v>
       </c>
       <c r="X65" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="6" t="s">
@@ -6645,7 +6636,7 @@
         <v>35</v>
       </c>
       <c r="X66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="6" t="s">
@@ -6800,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X68" s="6" t="s">
         <v>41</v>
@@ -6889,7 +6880,7 @@
         <v>35</v>
       </c>
       <c r="X69" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="6" t="s">
@@ -6974,7 +6965,7 @@
         <v>45</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:29">
@@ -7035,7 +7026,7 @@
         <v>35</v>
       </c>
       <c r="X71" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="6" t="s">
@@ -7121,7 +7112,7 @@
         <v>35</v>
       </c>
       <c r="X72" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="6" t="s">
@@ -7195,7 +7186,7 @@
         <v>35</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="6" t="s">
@@ -7205,7 +7196,7 @@
         <v>44</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>46</v>
@@ -7365,7 +7356,7 @@
         <v>44</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC75" s="6" t="s">
         <v>46</v>
@@ -7439,7 +7430,7 @@
         <v>35</v>
       </c>
       <c r="X76" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="6" t="s">
@@ -7449,7 +7440,7 @@
         <v>44</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC76" s="6" t="s">
         <v>46</v>
@@ -7523,7 +7514,7 @@
         <v>35</v>
       </c>
       <c r="X77" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="6" t="s">
@@ -7533,7 +7524,7 @@
         <v>44</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>46</v>
@@ -7597,7 +7588,7 @@
         <v>35</v>
       </c>
       <c r="X78" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="6" t="s">
@@ -7607,7 +7598,7 @@
         <v>44</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>46</v>
@@ -7679,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>46</v>
@@ -7827,7 +7818,7 @@
         <v>35</v>
       </c>
       <c r="X81" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y81" s="6" t="s">
         <v>42</v>
@@ -7915,7 +7906,7 @@
         <v>35</v>
       </c>
       <c r="X82" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="6" t="s">
@@ -7987,7 +7978,7 @@
         <v>35</v>
       </c>
       <c r="X83" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="6" t="s">
@@ -8065,7 +8056,7 @@
         <v>35</v>
       </c>
       <c r="X84" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y84" s="9"/>
       <c r="Z84" s="6" t="s">
@@ -8137,11 +8128,11 @@
         <v>35</v>
       </c>
       <c r="X85" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="6" t="s">
         <v>61</v>
@@ -8218,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="W86" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X86" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="6" t="s">
@@ -8307,7 +8298,7 @@
         <v>35</v>
       </c>
       <c r="X87" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="6" t="s">
@@ -8317,7 +8308,7 @@
         <v>44</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC87" s="6" t="s">
         <v>46</v>
@@ -8381,7 +8372,7 @@
         <v>35</v>
       </c>
       <c r="X88" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="6" t="s">
@@ -8467,7 +8458,7 @@
         <v>35</v>
       </c>
       <c r="X89" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y89" s="9"/>
       <c r="Z89" s="6" t="s">
@@ -8541,7 +8532,7 @@
         <v>35</v>
       </c>
       <c r="X90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="6" t="s">
@@ -8577,7 +8568,7 @@
         <v>31</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>33</v>
@@ -8620,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X91" s="6" t="s">
         <v>41</v>
@@ -8636,7 +8627,7 @@
         <v>45</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:29">
@@ -8707,7 +8698,7 @@
         <v>35</v>
       </c>
       <c r="X92" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="6" t="s">
@@ -8793,11 +8784,11 @@
         <v>35</v>
       </c>
       <c r="X93" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y93" s="9"/>
       <c r="Z93" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA93" s="6" t="s">
         <v>44</v>
@@ -8879,7 +8870,7 @@
         <v>35</v>
       </c>
       <c r="X94" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y94" s="9"/>
       <c r="Z94" s="6" t="s">
@@ -8965,7 +8956,7 @@
         <v>35</v>
       </c>
       <c r="X95" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="6" t="s">
@@ -9039,7 +9030,7 @@
         <v>35</v>
       </c>
       <c r="X96" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y96" s="9"/>
       <c r="Z96" s="6" t="s">
@@ -9122,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X97" s="6" t="s">
         <v>41</v>
@@ -9161,7 +9152,7 @@
         <v>31</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>33</v>
@@ -9207,7 +9198,7 @@
         <v>35</v>
       </c>
       <c r="X98" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="6" t="s">
@@ -9243,7 +9234,7 @@
         <v>31</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>33</v>
@@ -9289,7 +9280,7 @@
         <v>35</v>
       </c>
       <c r="X99" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y99" s="9"/>
       <c r="Z99" s="6" t="s">
@@ -9375,7 +9366,7 @@
         <v>35</v>
       </c>
       <c r="X100" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="6" t="s">
@@ -9461,7 +9452,7 @@
         <v>35</v>
       </c>
       <c r="X101" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y101" s="9"/>
       <c r="Z101" s="6" t="s">
@@ -9547,7 +9538,7 @@
         <v>35</v>
       </c>
       <c r="X102" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y102" s="9"/>
       <c r="Z102" s="6" t="s">
@@ -9557,7 +9548,7 @@
         <v>44</v>
       </c>
       <c r="AB102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC102" s="6" t="s">
         <v>46</v>
@@ -9619,7 +9610,7 @@
         <v>35</v>
       </c>
       <c r="X103" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y103" s="9"/>
       <c r="Z103" s="6" t="s">
@@ -9690,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="W104" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X104" s="6" t="s">
         <v>41</v>
@@ -9763,7 +9754,7 @@
         <v>35</v>
       </c>
       <c r="X105" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y105" s="9"/>
       <c r="Z105" s="6" t="s">
@@ -9849,7 +9840,7 @@
         <v>35</v>
       </c>
       <c r="X106" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="6" t="s">
@@ -9935,7 +9926,7 @@
         <v>47</v>
       </c>
       <c r="X107" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="6" t="s">
@@ -9945,7 +9936,7 @@
         <v>44</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC107" s="6" t="s">
         <v>46</v>
@@ -10013,7 +10004,7 @@
         <v>47</v>
       </c>
       <c r="X108" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="6" t="s">
@@ -10099,7 +10090,7 @@
         <v>35</v>
       </c>
       <c r="X109" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="6" t="s">
@@ -10241,7 +10232,7 @@
         <v>35</v>
       </c>
       <c r="X111" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="6" t="s">
@@ -10251,7 +10242,7 @@
         <v>44</v>
       </c>
       <c r="AB111" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC111" s="6" t="s">
         <v>46</v>
@@ -10327,7 +10318,7 @@
         <v>35</v>
       </c>
       <c r="X112" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="6" t="s">
@@ -10449,7 +10440,7 @@
         <v>31</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>33</v>
@@ -10495,7 +10486,7 @@
         <v>35</v>
       </c>
       <c r="X114" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="6" t="s">
@@ -10567,7 +10558,7 @@
         <v>47</v>
       </c>
       <c r="X115" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="6" t="s">
@@ -10653,10 +10644,10 @@
         <v>35</v>
       </c>
       <c r="X116" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y116" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z116" s="6" t="s">
         <v>59</v>
@@ -10736,7 +10727,7 @@
         <v>41</v>
       </c>
       <c r="Y117" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z117" s="6" t="s">
         <v>59</v>
@@ -10821,10 +10812,10 @@
         <v>47</v>
       </c>
       <c r="X118" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y118" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z118" s="6" t="s">
         <v>59</v>
@@ -10909,7 +10900,7 @@
         <v>35</v>
       </c>
       <c r="X119" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="6" t="s">
@@ -10995,10 +10986,10 @@
         <v>35</v>
       </c>
       <c r="X120" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y120" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z120" s="6" t="s">
         <v>59</v>
@@ -11079,10 +11070,10 @@
         <v>35</v>
       </c>
       <c r="X121" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y121" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z121" s="6" t="s">
         <v>59</v>
@@ -11157,10 +11148,10 @@
         <v>47</v>
       </c>
       <c r="X122" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y122" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z122" s="6" t="s">
         <v>43</v>
@@ -11245,7 +11236,7 @@
         <v>35</v>
       </c>
       <c r="X123" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y123" s="9"/>
       <c r="Z123" s="6" t="s">
@@ -11331,10 +11322,10 @@
         <v>35</v>
       </c>
       <c r="X124" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y124" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z124" s="6" t="s">
         <v>59</v>
@@ -11407,10 +11398,10 @@
         <v>47</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y125" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z125" s="6" t="s">
         <v>59</v>
@@ -11495,10 +11486,10 @@
         <v>47</v>
       </c>
       <c r="X126" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y126" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z126" s="6" t="s">
         <v>43</v>
@@ -11583,10 +11574,10 @@
         <v>47</v>
       </c>
       <c r="X127" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y127" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z127" s="6" t="s">
         <v>59</v>
@@ -11621,7 +11612,7 @@
         <v>52</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>70</v>
@@ -11667,10 +11658,10 @@
         <v>35</v>
       </c>
       <c r="X128" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y128" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z128" s="6" t="s">
         <v>59</v>
@@ -11755,10 +11746,10 @@
         <v>47</v>
       </c>
       <c r="X129" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y129" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z129" s="6" t="s">
         <v>59</v>
@@ -11831,10 +11822,10 @@
         <v>35</v>
       </c>
       <c r="X130" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y130" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z130" s="6" t="s">
         <v>59</v>
@@ -11919,10 +11910,10 @@
         <v>47</v>
       </c>
       <c r="X131" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y131" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z131" s="6" t="s">
         <v>59</v>
@@ -12007,10 +11998,10 @@
         <v>35</v>
       </c>
       <c r="X132" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y132" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z132" s="6" t="s">
         <v>59</v>
@@ -12096,7 +12087,7 @@
         <v>41</v>
       </c>
       <c r="Y133" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z133" s="6" t="s">
         <v>59</v>
@@ -12108,7 +12099,7 @@
         <v>45</v>
       </c>
       <c r="AC133" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:29">
@@ -12174,7 +12165,7 @@
         <v>41</v>
       </c>
       <c r="Y134" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z134" s="6" t="s">
         <v>59</v>
@@ -12252,19 +12243,19 @@
         <v>5</v>
       </c>
       <c r="U135" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V135" s="6">
         <v>3000</v>
       </c>
       <c r="W135" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X135" s="6" t="s">
         <v>58</v>
       </c>
       <c r="Y135" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z135" s="6" t="s">
         <v>59</v>
@@ -12478,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="W138" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X138" s="6" t="s">
         <v>41</v>
@@ -12558,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="U139" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V139" s="6">
         <v>3000</v>
@@ -12567,10 +12558,10 @@
         <v>47</v>
       </c>
       <c r="X139" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y139" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z139" s="6" t="s">
         <v>59</v>
@@ -12641,10 +12632,10 @@
         <v>35</v>
       </c>
       <c r="X140" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y140" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z140" s="6" t="s">
         <v>59</v>
@@ -12722,7 +12713,7 @@
         <v>5</v>
       </c>
       <c r="U141" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V141" s="6">
         <v>3000</v>
@@ -12731,10 +12722,10 @@
         <v>47</v>
       </c>
       <c r="X141" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y141" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z141" s="6" t="s">
         <v>59</v>
@@ -12805,10 +12796,10 @@
         <v>35</v>
       </c>
       <c r="X142" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y142" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z142" s="6" t="s">
         <v>59</v>
@@ -12874,19 +12865,19 @@
         <v>3</v>
       </c>
       <c r="U143" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V143" s="6">
         <v>5000</v>
       </c>
       <c r="W143" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X143" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y143" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z143" s="6" t="s">
         <v>59</v>
@@ -12898,7 +12889,7 @@
         <v>45</v>
       </c>
       <c r="AC143" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:29">
@@ -12960,7 +12951,7 @@
         <v>5</v>
       </c>
       <c r="U144" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V144" s="6">
         <v>3000</v>
@@ -12972,7 +12963,7 @@
         <v>41</v>
       </c>
       <c r="Y144" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z144" s="6" t="s">
         <v>43</v>
@@ -13043,10 +13034,10 @@
         <v>35</v>
       </c>
       <c r="X145" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y145" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z145" s="6" t="s">
         <v>43</v>
@@ -13124,19 +13115,19 @@
         <v>5</v>
       </c>
       <c r="U146" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V146" s="6">
         <v>3000</v>
       </c>
       <c r="W146" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X146" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y146" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z146" s="6" t="s">
         <v>59</v>
@@ -13214,19 +13205,19 @@
         <v>5</v>
       </c>
       <c r="U147" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V147" s="6">
         <v>15000</v>
       </c>
       <c r="W147" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X147" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y147" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z147" s="6" t="s">
         <v>59</v>
@@ -13292,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="W148" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X148" s="6" t="s">
         <v>41</v>
@@ -13360,10 +13351,10 @@
         <v>0</v>
       </c>
       <c r="W149" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X149" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y149" s="9"/>
       <c r="Z149" s="6" t="s">
@@ -13399,7 +13390,7 @@
         <v>52</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>70</v>
@@ -13442,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="W150" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X150" s="9"/>
       <c r="Y150" s="9"/>
@@ -13524,10 +13515,10 @@
         <v>0</v>
       </c>
       <c r="W151" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X151" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y151" s="9"/>
       <c r="Z151" s="6" t="s">
@@ -13610,10 +13601,10 @@
         <v>0</v>
       </c>
       <c r="W152" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X152" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y152" s="9"/>
       <c r="Z152" s="6" t="s">
@@ -13694,10 +13685,10 @@
         <v>0</v>
       </c>
       <c r="W153" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X153" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y153" s="9"/>
       <c r="Z153" s="6" t="s">
@@ -13764,10 +13755,10 @@
         <v>0</v>
       </c>
       <c r="W154" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X154" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y154" s="9"/>
       <c r="Z154" s="6" t="s">
@@ -13848,10 +13839,10 @@
         <v>0</v>
       </c>
       <c r="W155" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X155" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="6" t="s">
@@ -13918,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="W156" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X156" s="6" t="s">
         <v>41</v>
@@ -13986,19 +13977,19 @@
         <v>3</v>
       </c>
       <c r="U157" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V157" s="6">
         <v>20000</v>
       </c>
       <c r="W157" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X157" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y157" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z157" s="6" t="s">
         <v>59</v>
@@ -14010,7 +14001,7 @@
         <v>45</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:29">
@@ -14064,7 +14055,7 @@
         <v>5</v>
       </c>
       <c r="U158" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V158" s="6">
         <v>3000</v>
@@ -14073,10 +14064,10 @@
         <v>47</v>
       </c>
       <c r="X158" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y158" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z158" s="6" t="s">
         <v>59</v>
@@ -14154,7 +14145,7 @@
         <v>5</v>
       </c>
       <c r="U159" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V159" s="6">
         <v>3000</v>
@@ -14163,10 +14154,10 @@
         <v>47</v>
       </c>
       <c r="X159" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y159" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z159" s="6" t="s">
         <v>59</v>
@@ -14244,19 +14235,19 @@
         <v>5</v>
       </c>
       <c r="U160" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V160" s="6">
         <v>15000</v>
       </c>
       <c r="W160" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X160" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y160" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z160" s="6" t="s">
         <v>59</v>
@@ -14334,19 +14325,19 @@
         <v>5</v>
       </c>
       <c r="U161" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V161" s="6">
         <v>210000</v>
       </c>
       <c r="W161" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X161" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y161" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z161" s="6" t="s">
         <v>59</v>
@@ -14412,7 +14403,7 @@
         <v>5</v>
       </c>
       <c r="U162" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V162" s="6">
         <v>3000</v>
@@ -14421,10 +14412,10 @@
         <v>47</v>
       </c>
       <c r="X162" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y162" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z162" s="6" t="s">
         <v>59</v>
@@ -14490,16 +14481,16 @@
         <v>5</v>
       </c>
       <c r="U163" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V163" s="6">
         <v>3000</v>
       </c>
       <c r="W163" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X163" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y163" s="9"/>
       <c r="Z163" s="6" t="s">
@@ -14574,13 +14565,13 @@
         <v>1</v>
       </c>
       <c r="U164" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V164" s="6">
         <v>3000</v>
       </c>
       <c r="W164" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X164" s="6" t="s">
         <v>41</v>
@@ -14596,7 +14587,7 @@
         <v>45</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" ht="15" spans="1:29">
@@ -14648,13 +14639,13 @@
         <v>1</v>
       </c>
       <c r="U165" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V165" s="6">
         <v>3000</v>
       </c>
       <c r="W165" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
@@ -14722,7 +14713,7 @@
         <v>3000</v>
       </c>
       <c r="W166" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
@@ -14788,16 +14779,16 @@
         <v>3</v>
       </c>
       <c r="U167" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V167" s="6">
         <v>3000</v>
       </c>
       <c r="W167" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X167" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="6" t="s">
@@ -14878,10 +14869,10 @@
         <v>3000</v>
       </c>
       <c r="W168" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X168" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y168" s="9"/>
       <c r="Z168" s="6" t="s">
@@ -14952,7 +14943,7 @@
         <v>3000</v>
       </c>
       <c r="W169" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X169" s="9"/>
       <c r="Y169" s="9"/>
@@ -15028,7 +15019,7 @@
         <v>2</v>
       </c>
       <c r="U170" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V170" s="6">
         <v>3000</v>
@@ -15037,7 +15028,7 @@
         <v>47</v>
       </c>
       <c r="X170" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y170" s="9"/>
       <c r="Z170" s="6" t="s">
@@ -15109,7 +15100,7 @@
         <v>47</v>
       </c>
       <c r="X171" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y171" s="9"/>
       <c r="Z171" s="6" t="s">
@@ -15174,19 +15165,19 @@
         <v>4</v>
       </c>
       <c r="U172" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V172" s="6">
         <v>3000</v>
       </c>
       <c r="W172" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X172" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y172" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z172" s="6" t="s">
         <v>59</v>
@@ -15198,7 +15189,7 @@
         <v>45</v>
       </c>
       <c r="AC172" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:29">
@@ -15260,19 +15251,19 @@
         <v>3</v>
       </c>
       <c r="U173" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V173" s="6">
         <v>3000</v>
       </c>
       <c r="W173" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X173" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y173" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z173" s="6" t="s">
         <v>59</v>
@@ -15350,19 +15341,19 @@
         <v>5</v>
       </c>
       <c r="U174" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V174" s="6">
         <v>21000</v>
       </c>
       <c r="W174" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X174" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y174" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z174" s="6" t="s">
         <v>59</v>
@@ -15424,19 +15415,19 @@
       </c>
       <c r="T175" s="9"/>
       <c r="U175" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V175" s="6">
         <v>3000</v>
       </c>
       <c r="W175" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X175" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y175" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z175" s="6" t="s">
         <v>59</v>
@@ -15570,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="U177" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V177" s="6">
         <v>3000</v>
@@ -15697,7 +15688,7 @@
         <v>52</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>70</v>
@@ -15732,7 +15723,7 @@
         <v>2</v>
       </c>
       <c r="U179" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V179" s="6">
         <v>0</v>
@@ -15882,7 +15873,7 @@
         <v>4</v>
       </c>
       <c r="U181" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V181" s="6">
         <v>15000</v>
@@ -15891,7 +15882,7 @@
         <v>47</v>
       </c>
       <c r="X181" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y181" s="9"/>
       <c r="Z181" s="6" t="s">
@@ -15970,19 +15961,19 @@
         <v>1</v>
       </c>
       <c r="U182" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V182" s="6">
         <v>15000</v>
       </c>
       <c r="W182" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X182" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y182" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z182" s="6" t="s">
         <v>59</v>
@@ -16044,7 +16035,7 @@
       </c>
       <c r="T183" s="9"/>
       <c r="U183" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V183" s="6">
         <v>3000</v>
@@ -16054,7 +16045,7 @@
       </c>
       <c r="X183" s="9"/>
       <c r="Y183" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z183" s="6" t="s">
         <v>59</v>
@@ -16087,7 +16078,7 @@
         <v>52</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>70</v>
@@ -16120,19 +16111,19 @@
         <v>5</v>
       </c>
       <c r="U184" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V184" s="6">
         <v>18000</v>
       </c>
       <c r="W184" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X184" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y184" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z184" s="6" t="s">
         <v>59</v>
@@ -16204,7 +16195,7 @@
       </c>
       <c r="X185" s="9"/>
       <c r="Y185" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z185" s="6" t="s">
         <v>59</v>
@@ -16282,7 +16273,7 @@
         <v>5</v>
       </c>
       <c r="U186" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V186" s="6">
         <v>18000</v>
@@ -16294,7 +16285,7 @@
         <v>41</v>
       </c>
       <c r="Y186" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z186" s="6" t="s">
         <v>59</v>
@@ -16372,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="U187" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V187" s="6">
         <v>9000</v>
@@ -16384,7 +16375,7 @@
         <v>58</v>
       </c>
       <c r="Y187" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z187" s="6" t="s">
         <v>59</v>
@@ -16462,7 +16453,7 @@
         <v>5</v>
       </c>
       <c r="U188" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V188" s="6">
         <v>12000</v>
@@ -16471,10 +16462,10 @@
         <v>47</v>
       </c>
       <c r="X188" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y188" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z188" s="6" t="s">
         <v>59</v>
@@ -16552,19 +16543,19 @@
         <v>5</v>
       </c>
       <c r="U189" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V189" s="6">
         <v>20000</v>
       </c>
       <c r="W189" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X189" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y189" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z189" s="6" t="s">
         <v>59</v>
@@ -16634,19 +16625,19 @@
         <v>2</v>
       </c>
       <c r="U190" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V190" s="6">
         <v>10000</v>
       </c>
       <c r="W190" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X190" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y190" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z190" s="6" t="s">
         <v>59</v>
@@ -16710,19 +16701,19 @@
         <v>3</v>
       </c>
       <c r="U191" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V191" s="6">
         <v>10000</v>
       </c>
       <c r="W191" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X191" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y191" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z191" s="6" t="s">
         <v>59</v>
@@ -16800,19 +16791,19 @@
         <v>5</v>
       </c>
       <c r="U192" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V192" s="6">
         <v>30000</v>
       </c>
       <c r="W192" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X192" s="6" t="s">
         <v>58</v>
       </c>
       <c r="Y192" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z192" s="6" t="s">
         <v>59</v>
@@ -16847,7 +16838,7 @@
         <v>31</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>70</v>
@@ -16876,19 +16867,19 @@
       </c>
       <c r="T193" s="9"/>
       <c r="U193" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V193" s="6">
         <v>12000</v>
       </c>
       <c r="W193" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X193" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y193" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z193" s="6" t="s">
         <v>59</v>
@@ -16964,19 +16955,19 @@
         <v>4</v>
       </c>
       <c r="U194" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V194" s="6">
         <v>12000</v>
       </c>
       <c r="W194" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X194" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y194" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z194" s="6" t="s">
         <v>59</v>
@@ -17054,19 +17045,19 @@
         <v>2</v>
       </c>
       <c r="U195" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V195" s="6">
         <v>25000</v>
       </c>
       <c r="W195" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X195" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y195" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z195" s="6" t="s">
         <v>59</v>
@@ -17132,7 +17123,7 @@
         <v>5</v>
       </c>
       <c r="U196" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V196" s="6">
         <v>3000</v>
@@ -17141,10 +17132,10 @@
         <v>47</v>
       </c>
       <c r="X196" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y196" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z196" s="6" t="s">
         <v>59</v>
@@ -17222,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="U197" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V197" s="6">
         <v>3000</v>
@@ -17231,10 +17222,10 @@
         <v>47</v>
       </c>
       <c r="X197" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y197" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z197" s="6" t="s">
         <v>59</v>
@@ -17310,19 +17301,19 @@
         <v>1</v>
       </c>
       <c r="U198" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V198" s="6">
         <v>15000</v>
       </c>
       <c r="W198" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X198" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y198" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z198" s="6" t="s">
         <v>59</v>
@@ -17396,7 +17387,7 @@
         <v>5</v>
       </c>
       <c r="U199" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V199" s="6">
         <v>3000</v>
@@ -17408,7 +17399,7 @@
         <v>41</v>
       </c>
       <c r="Y199" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z199" s="6" t="s">
         <v>59</v>
@@ -17443,7 +17434,7 @@
         <v>52</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>33</v>
@@ -17482,7 +17473,7 @@
         <v>5</v>
       </c>
       <c r="U200" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V200" s="6">
         <v>3000</v>
@@ -17491,10 +17482,10 @@
         <v>47</v>
       </c>
       <c r="X200" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y200" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z200" s="6" t="s">
         <v>43</v>
@@ -17565,10 +17556,10 @@
         <v>35</v>
       </c>
       <c r="X201" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y201" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z201" s="6" t="s">
         <v>59</v>
@@ -17630,13 +17621,13 @@
       </c>
       <c r="T202" s="9"/>
       <c r="U202" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V202" s="6">
         <v>5000</v>
       </c>
       <c r="W202" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X202" s="6" t="s">
         <v>41</v>
@@ -17654,7 +17645,7 @@
         <v>45</v>
       </c>
       <c r="AC202" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:29">
@@ -17716,7 +17707,7 @@
         <v>5</v>
       </c>
       <c r="U203" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V203" s="6">
         <v>3000</v>
@@ -17725,10 +17716,10 @@
         <v>47</v>
       </c>
       <c r="X203" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y203" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z203" s="6" t="s">
         <v>59</v>
@@ -17806,7 +17797,7 @@
         <v>5</v>
       </c>
       <c r="U204" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V204" s="6">
         <v>3000</v>
@@ -17815,10 +17806,10 @@
         <v>47</v>
       </c>
       <c r="X204" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y204" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z204" s="6" t="s">
         <v>43</v>
@@ -17889,10 +17880,10 @@
         <v>35</v>
       </c>
       <c r="X205" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y205" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z205" s="6" t="s">
         <v>59</v>
@@ -17966,7 +17957,7 @@
         <v>5</v>
       </c>
       <c r="U206" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V206" s="6">
         <v>3000</v>
@@ -17975,10 +17966,10 @@
         <v>47</v>
       </c>
       <c r="X206" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y206" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z206" s="6" t="s">
         <v>59</v>
@@ -18052,7 +18043,7 @@
         <v>41</v>
       </c>
       <c r="Y207" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z207" s="6" t="s">
         <v>59</v>
@@ -18131,10 +18122,10 @@
         <v>35</v>
       </c>
       <c r="X208" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y208" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z208" s="6" t="s">
         <v>59</v>
@@ -18154,7 +18145,7 @@
         <v>45547.6273435532</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>30</v>
@@ -18184,7 +18175,7 @@
         <v>52</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M209" s="6">
         <v>2</v>
@@ -18212,13 +18203,13 @@
         <v>5</v>
       </c>
       <c r="U209" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V209" s="6">
         <v>2000</v>
       </c>
       <c r="W209" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X209" s="6" t="s">
         <v>41</v>
@@ -18298,7 +18289,7 @@
         <v>4</v>
       </c>
       <c r="U210" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V210" s="6">
         <v>3000</v>
@@ -18310,7 +18301,7 @@
         <v>41</v>
       </c>
       <c r="Y210" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z210" s="6" t="s">
         <v>59</v>
@@ -18388,7 +18379,7 @@
         <v>5</v>
       </c>
       <c r="U211" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V211" s="6">
         <v>3000</v>
@@ -18397,10 +18388,10 @@
         <v>47</v>
       </c>
       <c r="X211" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y211" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z211" s="6" t="s">
         <v>59</v>
@@ -18474,7 +18465,7 @@
         <v>4</v>
       </c>
       <c r="U212" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V212" s="6">
         <v>3000</v>
@@ -18483,10 +18474,10 @@
         <v>47</v>
       </c>
       <c r="X212" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y212" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z212" s="6" t="s">
         <v>59</v>
@@ -18557,10 +18548,10 @@
         <v>35</v>
       </c>
       <c r="X213" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y213" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z213" s="6" t="s">
         <v>59</v>
@@ -18626,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="U214" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V214" s="6">
         <v>3000</v>
@@ -18635,10 +18626,10 @@
         <v>47</v>
       </c>
       <c r="X214" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y214" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z214" s="6" t="s">
         <v>59</v>
@@ -18716,7 +18707,7 @@
         <v>4</v>
       </c>
       <c r="U215" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V215" s="6">
         <v>3000</v>
@@ -18725,10 +18716,10 @@
         <v>35</v>
       </c>
       <c r="X215" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y215" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z215" s="6" t="s">
         <v>59</v>
@@ -18806,7 +18797,7 @@
         <v>4</v>
       </c>
       <c r="U216" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V216" s="6">
         <v>3000</v>
@@ -18815,10 +18806,10 @@
         <v>47</v>
       </c>
       <c r="X216" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y216" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z216" s="6" t="s">
         <v>43</v>
@@ -18892,7 +18883,7 @@
         <v>4</v>
       </c>
       <c r="U217" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V217" s="6">
         <v>3000</v>
@@ -18901,10 +18892,10 @@
         <v>47</v>
       </c>
       <c r="X217" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y217" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z217" s="6" t="s">
         <v>59</v>
@@ -18978,7 +18969,7 @@
         <v>1</v>
       </c>
       <c r="U218" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V218" s="6">
         <v>3000</v>
@@ -18987,10 +18978,10 @@
         <v>47</v>
       </c>
       <c r="X218" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y218" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z218" s="6" t="s">
         <v>59</v>
@@ -19068,7 +19059,7 @@
         <v>4</v>
       </c>
       <c r="U219" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V219" s="6">
         <v>3000</v>
@@ -19077,10 +19068,10 @@
         <v>47</v>
       </c>
       <c r="X219" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y219" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z219" s="6" t="s">
         <v>59</v>
@@ -19144,19 +19135,19 @@
         <v>4</v>
       </c>
       <c r="U220" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V220" s="6">
         <v>3000</v>
       </c>
       <c r="W220" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X220" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y220" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z220" s="6" t="s">
         <v>59</v>
@@ -19234,13 +19225,13 @@
         <v>4</v>
       </c>
       <c r="U221" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V221" s="6">
         <v>1500</v>
       </c>
       <c r="W221" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X221" s="6" t="s">
         <v>41</v>
@@ -19324,13 +19315,13 @@
         <v>5</v>
       </c>
       <c r="U222" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V222" s="6">
         <v>2000</v>
       </c>
       <c r="W222" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X222" s="6" t="s">
         <v>41</v>
@@ -19414,19 +19405,19 @@
         <v>5</v>
       </c>
       <c r="U223" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V223" s="6">
         <v>8000</v>
       </c>
       <c r="W223" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X223" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y223" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z223" s="6" t="s">
         <v>59</v>
@@ -19438,7 +19429,7 @@
         <v>45</v>
       </c>
       <c r="AC223" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" ht="15" spans="1:29">
@@ -19487,13 +19478,13 @@
       </c>
       <c r="T224" s="9"/>
       <c r="U224" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V224" s="6">
         <v>1000</v>
       </c>
       <c r="W224" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X224" s="6" t="s">
         <v>41</v>
@@ -19559,19 +19550,19 @@
         <v>5</v>
       </c>
       <c r="U225" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V225" s="6">
         <v>10000</v>
       </c>
       <c r="W225" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X225" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y225" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z225" s="6" t="s">
         <v>59</v>
@@ -19631,13 +19622,13 @@
         <v>5</v>
       </c>
       <c r="U226" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V226" s="6">
         <v>1500</v>
       </c>
       <c r="W226" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X226" s="6" t="s">
         <v>41</v>
@@ -19703,19 +19694,19 @@
         <v>5</v>
       </c>
       <c r="U227" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V227" s="6">
         <v>10000</v>
       </c>
       <c r="W227" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X227" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y227" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z227" s="6" t="s">
         <v>59</v>
@@ -19775,13 +19766,13 @@
         <v>5</v>
       </c>
       <c r="U228" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V228" s="6">
         <v>1200</v>
       </c>
       <c r="W228" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X228" s="6" t="s">
         <v>41</v>
@@ -19847,13 +19838,13 @@
         <v>5</v>
       </c>
       <c r="U229" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V229" s="6">
         <v>1500</v>
       </c>
       <c r="W229" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X229" s="6" t="s">
         <v>41</v>
@@ -19919,13 +19910,13 @@
         <v>5</v>
       </c>
       <c r="U230" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V230" s="6">
         <v>1000</v>
       </c>
       <c r="W230" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X230" s="6" t="s">
         <v>41</v>
@@ -19991,7 +19982,7 @@
         <v>5</v>
       </c>
       <c r="U231" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V231" s="6">
         <v>1000</v>
